--- a/biology/Zoologie/Drupa_morum/Drupa_morum.xlsx
+++ b/biology/Zoologie/Drupa_morum/Drupa_morum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drupa morum est une espèce de mollusques gastéropodes prédateurs de la famille des Muricidae.
 </t>
@@ -511,14 +523,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Canrena neritoidea Link, 1807[1]
-Drupa horrida (Lamarck, 1816)[1]
-Drupa violacea (Schumacher, 1817)[1]
-Ricinella violacea Schumacher, 1817[1]
-Ricinula globosa Mörch, 1852[1]
-Ricinula horrida Lamarck, 1816[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Canrena neritoidea Link, 1807
+Drupa horrida (Lamarck, 1816)
+Drupa violacea (Schumacher, 1817)
+Ricinella violacea Schumacher, 1817
+Ricinula globosa Mörch, 1852
+Ricinula horrida Lamarck, 1816</t>
         </is>
       </c>
     </row>
@@ -546,9 +560,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (25 mars 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (25 mars 2023) :
 sous-espèce Drupa morum iodostoma (Lesson, 1840)</t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Drupa morum Röding, 1798[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Drupa morum Röding, 1798.
 </t>
         </is>
       </c>
